--- a/arquivos/impressao.xlsx
+++ b/arquivos/impressao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\API-Arte-arena\arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D0F9A6-9138-49F3-AE5E-6B47E2B329C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6464FB4E-BFC5-4666-B658-EAA831C57874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="36">
   <si>
     <t>BANDEIRA</t>
   </si>
@@ -75,42 +75,15 @@
     <t>FALTA BANDEIRA</t>
   </si>
   <si>
-    <t>prioridade - acho q tá duplicado</t>
-  </si>
-  <si>
     <t>CHINELO</t>
   </si>
   <si>
-    <t>⇩ REPOSIÇÕES ⇩</t>
-  </si>
-  <si>
-    <t>camisas: costa nº 5 Thiago, frente nº 21 Gustavo / shorts: 1 frente M masculino, 4 frentes (logo) femininas -TODAS GOLAS</t>
-  </si>
-  <si>
     <t>SHORTS</t>
   </si>
   <si>
-    <t>1 frente M</t>
-  </si>
-  <si>
-    <t>camiseta: costas ERÇON 46</t>
-  </si>
-  <si>
-    <t>CAMISETA COMPLETA RENÊ G (11)</t>
-  </si>
-  <si>
-    <t>BARBOSA 27 (M)</t>
-  </si>
-  <si>
     <t>masculinos 1 P / 21 M / 10 G / 5 GG - feminino 2 P / 1 GG</t>
   </si>
   <si>
-    <t>1 frente GG (goleiro), 1 manga G</t>
-  </si>
-  <si>
-    <t>⇩ AGUARDAR - NÃO FAZER! ⇩</t>
-  </si>
-  <si>
     <t>FAIXA DE MÃO</t>
   </si>
   <si>
@@ -154,13 +127,19 @@
   </si>
   <si>
     <t>rolo</t>
+  </si>
+  <si>
+    <t>aguardar não fazer</t>
+  </si>
+  <si>
+    <t>reposição</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,13 +151,6 @@
       <b/>
       <i/>
       <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="44"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -263,7 +235,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,12 +245,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,12 +298,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5CD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF93C47D"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -349,7 +309,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -408,43 +368,6 @@
       </left>
       <right style="dotted">
         <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
@@ -518,141 +441,99 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -935,41 +816,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>13157</v>
       </c>
@@ -991,7 +872,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>13180</v>
       </c>
@@ -1013,7 +894,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>13181</v>
       </c>
@@ -1035,7 +916,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>13184</v>
       </c>
@@ -1057,7 +938,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>13176</v>
       </c>
@@ -1079,7 +960,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>13178</v>
       </c>
@@ -1101,7 +982,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>13122</v>
       </c>
@@ -1121,7 +1002,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>13194</v>
       </c>
@@ -1143,7 +1024,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>13232</v>
       </c>
@@ -1167,7 +1048,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>13250</v>
       </c>
@@ -1189,7 +1070,7 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>13230</v>
       </c>
@@ -1211,7 +1092,7 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>13149</v>
       </c>
@@ -1233,7 +1114,7 @@
       </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13146</v>
       </c>
@@ -1255,7 +1136,7 @@
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13060</v>
       </c>
@@ -1275,7 +1156,7 @@
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12876</v>
       </c>
@@ -1293,7 +1174,7 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13188</v>
       </c>
@@ -1301,7 +1182,7 @@
         <v>45128</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3">
@@ -1315,7 +1196,7 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>13151</v>
       </c>
@@ -1335,7 +1216,7 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>13152</v>
       </c>
@@ -1355,7 +1236,7 @@
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>12979</v>
       </c>
@@ -1373,7 +1254,7 @@
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>12797</v>
       </c>
@@ -1393,7 +1274,7 @@
       </c>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>12943</v>
       </c>
@@ -1415,7 +1296,7 @@
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -1437,7 +1318,7 @@
       </c>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>13044</v>
       </c>
@@ -1457,7 +1338,7 @@
       </c>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>2000010000000000</v>
       </c>
@@ -1477,7 +1358,7 @@
       </c>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>13017</v>
       </c>
@@ -1493,7 +1374,7 @@
       </c>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>13109</v>
       </c>
@@ -1517,7 +1398,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>13084</v>
       </c>
@@ -1525,7 +1406,7 @@
         <v>45127</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3">
@@ -1539,7 +1420,7 @@
       </c>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>13365</v>
       </c>
@@ -1561,317 +1442,369 @@
       </c>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>13190</v>
-      </c>
-      <c r="B30" s="11">
-        <v>45127</v>
+        <v>13361</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45128</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="3">
-        <v>2.06</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>7</v>
+      <c r="E30" s="3"/>
+      <c r="F30" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>4</v>
       </c>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>13361</v>
+        <v>13147</v>
       </c>
       <c r="B31" s="2">
         <v>45128</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>0</v>
+      <c r="C31" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="8" t="s">
-        <v>3</v>
+      <c r="E31" s="4"/>
+      <c r="F31" s="23">
+        <v>45138</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>4</v>
       </c>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>13147</v>
+        <v>13165</v>
       </c>
       <c r="B32" s="2">
         <v>45128</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>13</v>
+      <c r="C32" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="4">
-        <v>43.35</v>
-      </c>
-      <c r="F32" s="23">
-        <v>45138</v>
+        <v>48.71</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>4</v>
       </c>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" ht="55.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>13191</v>
+        <v>13089</v>
       </c>
       <c r="B33" s="2">
         <v>45128</v>
       </c>
-      <c r="C33" s="20" t="s">
-        <v>13</v>
+      <c r="C33" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="12" t="s">
-        <v>16</v>
-      </c>
+      <c r="E33" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="F33" s="3"/>
       <c r="G33" s="9" t="s">
         <v>4</v>
       </c>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="110.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>13165</v>
-      </c>
-      <c r="B34" s="2">
-        <v>45128</v>
+        <v>13085</v>
+      </c>
+      <c r="B34" s="11">
+        <v>45125</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="E34" s="4">
-        <v>48.71</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>2</v>
-      </c>
+        <v>2.15</v>
+      </c>
+      <c r="F34" s="3"/>
       <c r="G34" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H34" s="6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>13089</v>
-      </c>
-      <c r="B35" s="2">
-        <v>45128</v>
-      </c>
-      <c r="C35" s="1" t="s">
+        <v>9393</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3">
-        <v>0.87</v>
-      </c>
-      <c r="F35" s="3"/>
+      <c r="D35" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="G35" s="9" t="s">
         <v>4</v>
       </c>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="41"/>
-    </row>
-    <row r="37" spans="1:8" ht="249.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="24">
-        <v>12711</v>
-      </c>
-      <c r="B37" s="11">
-        <v>45119</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="26">
-        <v>20.64</v>
-      </c>
-      <c r="F37" s="27" t="s">
+    <row r="36" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>13206</v>
+      </c>
+      <c r="B36" s="26">
+        <v>45131</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="4">
+        <v>4.17</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>13155</v>
+      </c>
+      <c r="B37" s="26">
+        <v>45131</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="4">
+        <v>3.21</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>13186</v>
+      </c>
+      <c r="B38" s="26">
+        <v>45131</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H37" s="28"/>
-    </row>
-    <row r="38" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="29">
-        <v>11672</v>
-      </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="D38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="F38" s="3"/>
       <c r="G38" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H38" s="32"/>
-    </row>
-    <row r="39" spans="1:8" ht="54" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="24">
-        <v>12653</v>
-      </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="33" t="s">
-        <v>22</v>
-      </c>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>13153</v>
+      </c>
+      <c r="B39" s="26">
+        <v>45131</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="F39" s="3"/>
       <c r="G39" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H39" s="28"/>
-    </row>
-    <row r="40" spans="1:8" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="24">
-        <v>12955</v>
-      </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="34" t="s">
-        <v>23</v>
-      </c>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>13156</v>
+      </c>
+      <c r="B40" s="26">
+        <v>45131</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="4">
+        <v>4.21</v>
+      </c>
+      <c r="F40" s="3"/>
       <c r="G40" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H40" s="28"/>
-    </row>
-    <row r="41" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="24">
-        <v>12913</v>
-      </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="34" t="s">
-        <v>24</v>
-      </c>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>13162</v>
+      </c>
+      <c r="B41" s="26">
+        <v>45131</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="4">
+        <v>3.19</v>
+      </c>
+      <c r="F41" s="3"/>
       <c r="G41" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H41" s="28"/>
-    </row>
-    <row r="42" spans="1:8" ht="110.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>13085</v>
-      </c>
-      <c r="B42" s="11">
-        <v>45125</v>
+        <v>13170</v>
+      </c>
+      <c r="B42" s="26">
+        <v>45131</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="4">
-        <v>2.15</v>
+      <c r="D42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1.42</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H42" s="6">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="93.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>9393</v>
-      </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="35" t="s">
+        <v>13160</v>
+      </c>
+      <c r="B43" s="26">
+        <v>45131</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>13019</v>
+      </c>
+      <c r="B44" s="26">
+        <v>45132</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="1:8" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>13105</v>
-      </c>
-      <c r="B44" s="36">
-        <v>45126</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="10" t="s">
-        <v>26</v>
+      <c r="D44" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>4</v>
       </c>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" ht="110.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="41"/>
-    </row>
-    <row r="46" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>13199</v>
+      </c>
+      <c r="B45" s="26">
+        <v>45132</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3.12</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>13206</v>
-      </c>
-      <c r="B46" s="37">
-        <v>45131</v>
+        <v>13208</v>
+      </c>
+      <c r="B46" s="26">
+        <v>45132</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="E46" s="4">
-        <v>4.17</v>
+        <v>39.65</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="9" t="s">
@@ -1879,19 +1812,21 @@
       </c>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>13155</v>
-      </c>
-      <c r="B47" s="37">
-        <v>45131</v>
+        <v>13267</v>
+      </c>
+      <c r="B47" s="26">
+        <v>45132</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="4">
-        <v>3.21</v>
+        <v>0</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2.06</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="9" t="s">
@@ -1899,19 +1834,21 @@
       </c>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>13186</v>
-      </c>
-      <c r="B48" s="37">
-        <v>45131</v>
+        <v>13235</v>
+      </c>
+      <c r="B48" s="26">
+        <v>45132</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="4">
-        <v>1.4</v>
+        <v>0</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1.56</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="9" t="s">
@@ -1919,19 +1856,21 @@
       </c>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>13153</v>
-      </c>
-      <c r="B49" s="37">
-        <v>45131</v>
+        <v>13185</v>
+      </c>
+      <c r="B49" s="26">
+        <v>45132</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="4">
-        <v>1.6</v>
+      <c r="D49" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4.12</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="9" t="s">
@@ -1939,39 +1878,45 @@
       </c>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>13156</v>
-      </c>
-      <c r="B50" s="37">
-        <v>45131</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="3"/>
+        <v>13217</v>
+      </c>
+      <c r="B50" s="26">
+        <v>45133</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="E50" s="4">
-        <v>4.21</v>
-      </c>
-      <c r="F50" s="3"/>
+        <v>15.94</v>
+      </c>
+      <c r="F50" s="21">
+        <v>45144</v>
+      </c>
       <c r="G50" s="9" t="s">
         <v>4</v>
       </c>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>13162</v>
-      </c>
-      <c r="B51" s="37">
-        <v>45131</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="3"/>
+        <v>13216</v>
+      </c>
+      <c r="B51" s="26">
+        <v>45133</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="E51" s="4">
-        <v>3.19</v>
+        <v>19.73</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="9" t="s">
@@ -1979,19 +1924,21 @@
       </c>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>13170</v>
-      </c>
-      <c r="B52" s="37">
-        <v>45131</v>
+        <v>13263</v>
+      </c>
+      <c r="B52" s="26">
+        <v>45133</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D52" s="3"/>
+      <c r="D52" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="E52" s="3">
-        <v>1.42</v>
+        <v>2.11</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="9" t="s">
@@ -1999,61 +1946,63 @@
       </c>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>13160</v>
-      </c>
-      <c r="B53" s="37">
-        <v>45131</v>
+        <v>13246</v>
+      </c>
+      <c r="B53" s="26">
+        <v>45133</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="4">
-        <v>4.2</v>
-      </c>
+      <c r="D53" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="9" t="s">
         <v>4</v>
       </c>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="1:8" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>13019</v>
-      </c>
-      <c r="B54" s="37">
-        <v>45132</v>
+        <v>13298</v>
+      </c>
+      <c r="B54" s="26">
+        <v>45133</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="4">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="F54" s="3"/>
       <c r="G54" s="9" t="s">
         <v>4</v>
       </c>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>13199</v>
-      </c>
-      <c r="B55" s="37">
-        <v>45132</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55" s="3"/>
+        <v>13278</v>
+      </c>
+      <c r="B55" s="26">
+        <v>45133</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="E55" s="3">
-        <v>3.12</v>
+        <v>0.39</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="9" t="s">
@@ -2061,19 +2010,21 @@
       </c>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>13208</v>
-      </c>
-      <c r="B56" s="37">
-        <v>45132</v>
+        <v>13238</v>
+      </c>
+      <c r="B56" s="26">
+        <v>45134</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="4">
-        <v>39.65</v>
+        <v>0</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E56" s="3">
+        <v>4.17</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="9" t="s">
@@ -2081,39 +2032,45 @@
       </c>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>13267</v>
-      </c>
-      <c r="B57" s="37">
-        <v>45132</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3">
-        <v>2.06</v>
-      </c>
-      <c r="F57" s="3"/>
+        <v>13219</v>
+      </c>
+      <c r="B57" s="26">
+        <v>45134</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" s="4">
+        <v>31.59</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="G57" s="9" t="s">
         <v>4</v>
       </c>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>13235</v>
-      </c>
-      <c r="B58" s="37">
-        <v>45132</v>
+        <v>13229</v>
+      </c>
+      <c r="B58" s="26">
+        <v>45135</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="E58" s="3">
-        <v>1.56</v>
+        <v>5.21</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="9" t="s">
@@ -2121,19 +2078,21 @@
       </c>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>13185</v>
-      </c>
-      <c r="B59" s="37">
-        <v>45132</v>
+        <v>13224</v>
+      </c>
+      <c r="B59" s="26">
+        <v>45135</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D59" s="3"/>
+      <c r="D59" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="E59" s="3">
-        <v>4.12</v>
+        <v>12.11</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="9" t="s">
@@ -2141,213 +2100,7 @@
       </c>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
-        <v>13217</v>
-      </c>
-      <c r="B60" s="37">
-        <v>45133</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="4">
-        <v>15.94</v>
-      </c>
-      <c r="F60" s="21">
-        <v>45144</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H60" s="6"/>
-    </row>
-    <row r="61" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
-        <v>13216</v>
-      </c>
-      <c r="B61" s="37">
-        <v>45133</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="4">
-        <v>19.73</v>
-      </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H61" s="6"/>
-    </row>
-    <row r="62" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
-        <v>13263</v>
-      </c>
-      <c r="B62" s="37">
-        <v>45133</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3">
-        <v>2.11</v>
-      </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="6"/>
-    </row>
-    <row r="63" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
-        <v>13246</v>
-      </c>
-      <c r="B63" s="37">
-        <v>45133</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H63" s="6"/>
-    </row>
-    <row r="64" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
-        <v>13298</v>
-      </c>
-      <c r="B64" s="37">
-        <v>45133</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="F64" s="3"/>
-      <c r="G64" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H64" s="6"/>
-    </row>
-    <row r="65" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
-        <v>13278</v>
-      </c>
-      <c r="B65" s="37">
-        <v>45133</v>
-      </c>
-      <c r="C65" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3">
-        <v>0.39</v>
-      </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H65" s="6"/>
-    </row>
-    <row r="66" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
-        <v>13238</v>
-      </c>
-      <c r="B66" s="37">
-        <v>45134</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3">
-        <v>4.17</v>
-      </c>
-      <c r="F66" s="3"/>
-      <c r="G66" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H66" s="6"/>
-    </row>
-    <row r="67" spans="1:8" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
-        <v>13219</v>
-      </c>
-      <c r="B67" s="37">
-        <v>45134</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="3"/>
-      <c r="E67" s="4">
-        <v>31.59</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H67" s="6"/>
-    </row>
-    <row r="68" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
-        <v>13229</v>
-      </c>
-      <c r="B68" s="37">
-        <v>45135</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3">
-        <v>5.21</v>
-      </c>
-      <c r="F68" s="3"/>
-      <c r="G68" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H68" s="6"/>
-    </row>
-    <row r="69" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
-        <v>13224</v>
-      </c>
-      <c r="B69" s="37">
-        <v>45135</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3">
-        <v>12.11</v>
-      </c>
-      <c r="F69" s="3"/>
-      <c r="G69" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H69" s="6"/>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A36:H36"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
